--- a/OBPIT/Задание 4.xlsx
+++ b/OBPIT/Задание 4.xlsx
@@ -3174,7 +3174,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>438149</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>55273</xdr:rowOff>
+      <xdr:rowOff>55272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>

--- a/OBPIT/Задание 4.xlsx
+++ b/OBPIT/Задание 4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>Вариант</t>
   </si>
@@ -200,12 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve">п.4 · п.1 · 1,10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4 оплата за часть объема производства в интервале перевыполнения плана 121 – 130%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">п.4 · п.1 · 1,20</t>
   </si>
   <si>
     <t xml:space="preserve">таблица 4.7</t>
@@ -953,7 +947,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -964,6 +958,115 @@
     <border>
       <left style="medium">
         <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -1000,66 +1103,6 @@
       </right>
       <top style="thin">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1085,8 +1128,53 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1489,42 +1577,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1562,55 +1619,55 @@
     <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1619,193 +1676,196 @@
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="5" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3783,13 +3843,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="90" workbookViewId="0">
       <selection activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="84.33203125" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="106.68359375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="86.203125"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="10.7734375"/>
     <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="38.11328125"/>
     <col min="4" max="16384" style="1" width="84.33203125"/>
@@ -3871,10 +3931,10 @@
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="1">
         <v>150</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3882,11 +3942,11 @@
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="1">
         <f>B2</f>
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3894,11 +3954,11 @@
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="1">
         <f>B7</f>
         <v>1.5700000000000001</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3906,10 +3966,10 @@
       <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3917,11 +3977,11 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <f>B11*B13*B14</f>
         <v>259.05000000000001</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3929,10 +3989,10 @@
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <v>176</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3940,11 +4000,11 @@
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <f>B15/B16</f>
         <v>1.471875</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3952,11 +4012,11 @@
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="1">
         <f>B5</f>
         <v>1.6000000000000001</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3964,11 +4024,11 @@
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="1">
         <f>B17*B18</f>
         <v>2.355</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3976,23 +4036,23 @@
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="1">
         <f>B3</f>
         <v>127</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <f>B19*B20</f>
         <v>299.08499999999998</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4016,11 +4076,11 @@
       <c r="A25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <f>B21</f>
         <v>299.08499999999998</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4028,10 +4088,10 @@
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>176</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4039,11 +4099,11 @@
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <f>B5</f>
         <v>1.6000000000000001</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4051,11 +4111,11 @@
       <c r="A28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <f>B26/B27</f>
         <v>110</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4063,11 +4123,11 @@
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <f>B3</f>
         <v>127</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4075,11 +4135,11 @@
       <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <f>B29/B28*100-100</f>
         <v>15.454545454545453</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4087,11 +4147,11 @@
       <c r="A31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <f>B30*0.5</f>
         <v>7.7272727272727266</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4099,30 +4159,37 @@
       <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <f>B25*B31/100</f>
         <v>23.111113636363633</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <f>B25+B32</f>
         <v>322.19611363636363</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+    </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="20" t="s">
         <v>44</v>
       </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -4139,11 +4206,11 @@
       <c r="A37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <f>B19</f>
         <v>2.355</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4151,11 +4218,11 @@
       <c r="A38" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <f>B28</f>
         <v>110</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4163,10 +4230,10 @@
       <c r="A39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>10</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4174,11 +4241,11 @@
       <c r="A40" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <f>ROUNDDOWN(B38*10%,0)</f>
         <v>11</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4186,11 +4253,11 @@
       <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <f>SUM(B42:B45)</f>
-        <v>345.83175</v>
-      </c>
-      <c r="C41" s="14" t="s">
+        <v>301.79325</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4198,11 +4265,11 @@
       <c r="A42" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="17">
         <f>B37*B38</f>
         <v>259.05000000000001</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="1">
@@ -4213,11 +4280,11 @@
       <c r="A43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="17">
         <f>B40*B37*1.05</f>
         <v>27.200250000000004</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="1">
@@ -4232,11 +4299,11 @@
       <c r="A44" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="18">
-        <f>B40*B37*1.1</f>
-        <v>28.495500000000003</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="17">
+        <f>(B29-B28-B40)*B37*1.1</f>
+        <v>15.543000000000001</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="1">
@@ -4248,16 +4315,9 @@
       </c>
     </row>
     <row r="45" ht="28.5">
-      <c r="A45" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="19">
-        <f>B40*B37*1.2</f>
-        <v>31.085999999999999</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="A45" s="14"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="1">
         <v>9</v>
       </c>
@@ -4266,10 +4326,17 @@
         <v>120</v>
       </c>
     </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+    </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="A47" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -4286,10 +4353,10 @@
       <c r="A49" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="17">
         <v>150</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4297,11 +4364,11 @@
       <c r="A50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="17">
         <f>B2</f>
         <v>4</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4309,11 +4376,11 @@
       <c r="A51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="17">
         <f>B7</f>
         <v>1.5700000000000001</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4321,10 +4388,10 @@
       <c r="A52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4332,11 +4399,11 @@
       <c r="A53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <f>B49*B51*B52</f>
         <v>259.05000000000001</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4344,41 +4411,48 @@
       <c r="A54" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>176</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="18">
+        <v>62</v>
+      </c>
+      <c r="B55" s="17">
         <f>B4</f>
         <v>140</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="19">
+      <c r="A56" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="18">
         <f>B53*B55/B54</f>
         <v>206.0625</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>66</v>
-      </c>
+      <c r="C56" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="A58" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -4393,54 +4467,59 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="18">
+        <v>66</v>
+      </c>
+      <c r="B60" s="17">
         <f>B56</f>
         <v>206.0625</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>69</v>
+      <c r="C60" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="18">
+        <v>68</v>
+      </c>
+      <c r="B61" s="17">
         <v>30</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="18">
+        <v>69</v>
+      </c>
+      <c r="B62" s="17">
         <f>B60*B61/100</f>
         <v>61.818750000000001</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>72</v>
+      <c r="C62" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="19">
+      <c r="A63" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="18">
         <f>B60+B62</f>
         <v>267.88125000000002</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="C63" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="66" ht="15.6" customHeight="1">
       <c r="A66" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
@@ -4492,7 +4571,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4504,7 +4583,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -4515,13 +4594,13 @@
     <row r="3" ht="14.4" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>80</v>
       </c>
       <c r="E3" s="37">
         <v>4</v>
@@ -4545,1530 +4624,1530 @@
       </c>
     </row>
     <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="42">
+        <v>6.7000000000000002</v>
+      </c>
+      <c r="C5" s="42">
+        <v>7.0999999999999996</v>
+      </c>
+      <c r="D5" s="42">
+        <v>4.7999999999999998</v>
+      </c>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="42">
+        <v>5</v>
+      </c>
+      <c r="C6" s="42">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42">
+        <v>8</v>
+      </c>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B7" s="42">
+        <v>30</v>
+      </c>
+      <c r="C7" s="42">
+        <v>40</v>
+      </c>
+      <c r="D7" s="42">
+        <v>29</v>
+      </c>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="42">
+        <v>115</v>
+      </c>
+      <c r="C8" s="42">
+        <v>120</v>
+      </c>
+      <c r="D8" s="42">
+        <v>105</v>
+      </c>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" ht="28.5">
+      <c r="A10" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="42">
+        <v>68</v>
+      </c>
+      <c r="C10" s="42">
+        <v>59</v>
+      </c>
+      <c r="D10" s="42">
+        <v>82</v>
+      </c>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" ht="14.4" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" customHeight="1">
+      <c r="A12" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" customHeight="1">
+      <c r="A13" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1">
+      <c r="A14" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="42">
+        <v>21</v>
+      </c>
+      <c r="C14" s="42">
+        <v>19</v>
+      </c>
+      <c r="D14" s="42">
+        <v>23</v>
+      </c>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" ht="14.4" customHeight="1">
+      <c r="A15" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="42">
+        <v>114</v>
+      </c>
+      <c r="C15" s="42">
+        <v>120</v>
+      </c>
+      <c r="D15" s="42">
+        <v>103</v>
+      </c>
+      <c r="E15" s="44"/>
+    </row>
+    <row r="16" ht="14.4" customHeight="1">
+      <c r="A16" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" customHeight="1">
+      <c r="A17" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="14.4" customHeight="1">
+      <c r="A18" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" ht="14.4" customHeight="1">
+      <c r="A19" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="14.4" customHeight="1">
+      <c r="A20" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" ht="14.4" customHeight="1">
+      <c r="A21" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="14.4" customHeight="1">
+      <c r="A22" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="14.4" customHeight="1">
+      <c r="A23" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43">
+        <v>5.4000000000000004</v>
+      </c>
+    </row>
+    <row r="24" ht="14.4" customHeight="1">
+      <c r="A24" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43">
+        <v>7.9000000000000004</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" customHeight="1">
+      <c r="A25" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43">
+        <v>19.699999999999999</v>
+      </c>
+    </row>
+    <row r="26" ht="14.4" customHeight="1">
+      <c r="A26" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" ht="14.4" customHeight="1">
+      <c r="A27" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43">
+        <v>13.199999999999999</v>
+      </c>
+    </row>
+    <row r="28" ht="14.4" customHeight="1">
+      <c r="A28" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43">
         <v>6.7000000000000002</v>
       </c>
-      <c r="C5" s="41">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="D5" s="41">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="41">
-        <v>5</v>
-      </c>
-      <c r="C6" s="41">
-        <v>6</v>
-      </c>
-      <c r="D6" s="41">
-        <v>8</v>
-      </c>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="41">
-        <v>30</v>
-      </c>
-      <c r="C7" s="41">
-        <v>40</v>
-      </c>
-      <c r="D7" s="41">
-        <v>29</v>
-      </c>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="41">
-        <v>115</v>
-      </c>
-      <c r="C8" s="41">
-        <v>120</v>
-      </c>
-      <c r="D8" s="41">
-        <v>105</v>
-      </c>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="C9" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" ht="28.5">
-      <c r="A10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="41">
-        <v>68</v>
-      </c>
-      <c r="C10" s="41">
-        <v>59</v>
-      </c>
-      <c r="D10" s="41">
-        <v>82</v>
-      </c>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="41">
-        <v>21</v>
-      </c>
-      <c r="C14" s="41">
-        <v>19</v>
-      </c>
-      <c r="D14" s="41">
-        <v>23</v>
-      </c>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="41">
-        <v>114</v>
-      </c>
-      <c r="C15" s="41">
-        <v>120</v>
-      </c>
-      <c r="D15" s="41">
+    </row>
+    <row r="29" ht="14.4" customHeight="1">
+      <c r="A29" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" ht="14.4" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="19" ht="14.4" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42">
-        <v>5.4000000000000004</v>
-      </c>
-    </row>
-    <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42">
-        <v>7.9000000000000004</v>
-      </c>
-    </row>
-    <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42">
-        <v>19.699999999999999</v>
-      </c>
-    </row>
-    <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42">
-        <v>13.199999999999999</v>
-      </c>
-    </row>
-    <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43">
+        <v>23.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" ht="14.4" customHeight="1">
+      <c r="A30" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42">
-        <v>6.7000000000000002</v>
-      </c>
-    </row>
-    <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42">
-        <v>23.399999999999999</v>
-      </c>
-    </row>
-    <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="1"/>
     <row r="32" ht="14.4" customHeight="1">
       <c r="A32" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" ht="14.4" customHeight="1">
+      <c r="A33" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" s="46" t="s">
+      <c r="C33" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="47" t="s">
+    </row>
+    <row r="34" ht="14.4" customHeight="1">
+      <c r="A34" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" ht="14.4" customHeight="1">
+      <c r="A35" s="54" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" ht="14.4" customHeight="1">
-      <c r="A34" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-    </row>
-    <row r="35" ht="14.4" customHeight="1">
-      <c r="A35" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="53">
+      <c r="B35" s="55">
         <f>(B5*B6*B7+C5*C6*C7+D5*D6*D7)</f>
         <v>3822.5999999999999</v>
       </c>
-      <c r="C35" s="54" t="s">
-        <v>113</v>
+      <c r="C35" s="56" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="1">
-      <c r="A36" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="56">
+      <c r="A36" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="58">
         <f>(B5*B8*B9+C5*C8*C9+D5*D8*D9)</f>
         <v>531.625</v>
       </c>
-      <c r="C36" s="57" t="s">
-        <v>115</v>
+      <c r="C36" s="59" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="1">
-      <c r="A37" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="56">
+      <c r="A37" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="58">
         <f>E27</f>
         <v>13.199999999999999</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>117</v>
+      <c r="C37" s="59" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="1">
-      <c r="A38" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="56">
+      <c r="A38" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="58">
         <f t="shared" ref="B38:B39" si="0">E29</f>
         <v>23.399999999999999</v>
       </c>
-      <c r="C38" s="57" t="s">
-        <v>119</v>
+      <c r="C38" s="59" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="1">
-      <c r="A39" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="56">
+      <c r="A39" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="58">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C39" s="57" t="s">
-        <v>121</v>
+      <c r="C39" s="59" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="1">
-      <c r="A40" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="59">
+      <c r="A40" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="61">
         <f>SUM(B35:B39)</f>
         <v>4398.8249999999998</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" ht="14.4" customHeight="1">
+      <c r="A41" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+    </row>
+    <row r="42" ht="28.5">
+      <c r="A42" s="54" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" ht="14.4" customHeight="1">
-      <c r="A41" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-    </row>
-    <row r="42" ht="28.5">
-      <c r="A42" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="53">
+      <c r="B42" s="55">
         <f>B5*B10+C5*C10+D5*D10</f>
         <v>1268.0999999999999</v>
       </c>
-      <c r="C42" s="54" t="s">
-        <v>126</v>
+      <c r="C42" s="56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="1">
-      <c r="A43" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="56">
+      <c r="A43" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="58">
         <f t="shared" ref="B43:B45" si="1">E11</f>
         <v>79</v>
       </c>
-      <c r="C43" s="57" t="s">
-        <v>128</v>
+      <c r="C43" s="59" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="56">
+      <c r="A44" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="58">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>130</v>
+      <c r="C44" s="59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="1">
-      <c r="A45" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="56">
+      <c r="A45" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="58">
         <f t="shared" si="1"/>
         <v>470</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>132</v>
+      <c r="C45" s="59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="1">
-      <c r="A46" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="59">
+      <c r="A46" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="61">
         <f>SUM(B42:B45)</f>
         <v>3417.0999999999999</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" ht="14.4" customHeight="1">
+      <c r="A47" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+    </row>
+    <row r="48" ht="28.5">
+      <c r="A48" s="54" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" ht="14.4" customHeight="1">
-      <c r="A47" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-    </row>
-    <row r="48" ht="28.5">
-      <c r="A48" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="53">
+      <c r="B48" s="55">
         <f>B46*34.6/100</f>
         <v>1182.3166000000001</v>
       </c>
-      <c r="C48" s="54" t="s">
-        <v>137</v>
+      <c r="C48" s="56" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" ht="14.4" customHeight="1">
-      <c r="A49" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="59">
+      <c r="A49" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="61">
         <f>B48</f>
         <v>1182.3166000000001</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" ht="14.4" customHeight="1">
+      <c r="A50" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+    </row>
+    <row r="51" ht="14.4" customHeight="1">
+      <c r="A51" s="54" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" ht="14.4" customHeight="1">
-      <c r="A50" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-    </row>
-    <row r="51" ht="14.4" customHeight="1">
-      <c r="A51" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="53">
+      <c r="B51" s="55">
         <f>E16/E17</f>
         <v>136</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>142</v>
+      <c r="C51" s="56" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="52" ht="14.4" customHeight="1">
-      <c r="A52" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="56">
+      <c r="A52" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="58">
         <f>E18*E19/100</f>
         <v>94.5</v>
       </c>
-      <c r="C52" s="57" t="s">
-        <v>144</v>
+      <c r="C52" s="59" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="56">
+      <c r="A53" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="58">
         <f>E20</f>
         <v>105</v>
       </c>
-      <c r="C53" s="57" t="s">
-        <v>146</v>
+      <c r="C53" s="59" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="59">
+      <c r="A54" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="61">
         <f>SUM(B51:B53)</f>
         <v>335.5</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" ht="14.4" customHeight="1">
+      <c r="A55" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+    </row>
+    <row r="56" ht="28.5">
+      <c r="A56" s="54" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" ht="14.4" customHeight="1">
-      <c r="A55" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-    </row>
-    <row r="56" ht="28.5">
-      <c r="A56" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" s="53">
+      <c r="B56" s="55">
         <f>(B14*B15+C14*C15+D14*D15)/1000</f>
         <v>7.0430000000000001</v>
       </c>
-      <c r="C56" s="54" t="s">
-        <v>151</v>
+      <c r="C56" s="56" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="57" ht="14.4" customHeight="1">
-      <c r="A57" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="56">
+      <c r="A57" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="58">
         <f t="shared" ref="B57:B62" si="2">E21</f>
         <v>12</v>
       </c>
-      <c r="C57" s="57" t="s">
-        <v>153</v>
+      <c r="C57" s="59" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="58" ht="14.4" customHeight="1">
-      <c r="A58" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="56">
+      <c r="A58" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="58">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C58" s="57" t="s">
-        <v>155</v>
+      <c r="C58" s="59" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="59" ht="14.4" customHeight="1">
-      <c r="A59" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="56">
+      <c r="A59" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="58">
         <f t="shared" si="2"/>
         <v>5.4000000000000004</v>
       </c>
-      <c r="C59" s="57" t="s">
-        <v>157</v>
+      <c r="C59" s="59" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" ht="14.4" customHeight="1">
-      <c r="A60" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="56">
+      <c r="A60" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="58">
         <f t="shared" si="2"/>
         <v>7.9000000000000004</v>
       </c>
-      <c r="C60" s="57" t="s">
-        <v>159</v>
+      <c r="C60" s="59" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="61" ht="14.4" customHeight="1">
-      <c r="A61" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="56">
+      <c r="A61" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="58">
         <f t="shared" si="2"/>
         <v>19.699999999999999</v>
       </c>
-      <c r="C61" s="57" t="s">
-        <v>161</v>
+      <c r="C61" s="59" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="62" ht="14.4" customHeight="1">
-      <c r="A62" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="56">
+      <c r="A62" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="58">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="C62" s="57" t="s">
-        <v>163</v>
+      <c r="C62" s="59" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="63" ht="14.4" customHeight="1">
-      <c r="A63" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="56">
+      <c r="A63" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="58">
         <f>E28</f>
         <v>6.7000000000000002</v>
       </c>
-      <c r="C63" s="57" t="s">
-        <v>165</v>
+      <c r="C63" s="59" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="64" ht="28.5">
-      <c r="A64" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="B64" s="62">
+      <c r="A64" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="64">
         <f>SUM(B56:B63)</f>
         <v>87.242999999999995</v>
       </c>
-      <c r="C64" s="63" t="s">
-        <v>167</v>
+      <c r="C64" s="65" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="65" ht="14.4" customHeight="1">
-      <c r="A65" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="65">
+      <c r="A65" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="67">
         <f>B40+B46+B49+B54+B64</f>
         <v>9420.9845999999998</v>
       </c>
-      <c r="C65" s="66" t="s">
-        <v>169</v>
+      <c r="C65" s="68" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="66" ht="14.4" customHeight="1">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="E66" s="68">
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="E66" s="70">
         <f>B70+B71</f>
         <v>48.820975675939437</v>
       </c>
     </row>
     <row r="67" ht="14.4" customHeight="1">
       <c r="A67" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
     </row>
     <row r="68" ht="14.4" customHeight="1">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="74"/>
+      <c r="E68" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="76"/>
     </row>
     <row r="69" ht="14.4" customHeight="1">
-      <c r="A69" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="76">
+      <c r="A69" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="78">
         <f>B40/B65*100</f>
         <v>46.691775719493265</v>
       </c>
-      <c r="C69" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="E69" s="78"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="42"/>
+      <c r="C69" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="80"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="43"/>
     </row>
     <row r="70" ht="14.4" customHeight="1">
-      <c r="A70" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="41">
+      <c r="A70" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="42">
         <f>B46/B65*100</f>
         <v>36.271155777072387</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="78"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="42"/>
+      <c r="C70" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="80"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="43"/>
     </row>
     <row r="71" ht="14.4" customHeight="1">
-      <c r="A71" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="41">
+      <c r="A71" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="42">
         <f>B49/B65*100</f>
         <v>12.549819898867048</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="78"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
+      <c r="C71" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="80"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="43"/>
     </row>
     <row r="72" ht="14.4" customHeight="1">
-      <c r="A72" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="41">
+      <c r="A72" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="42">
         <f>B54/B65*100</f>
         <v>3.5611989005904969</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="78"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="42"/>
+      <c r="C72" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="80"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="43"/>
     </row>
     <row r="73" ht="14.4" customHeight="1">
-      <c r="A73" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="41">
+      <c r="A73" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="42">
         <f>B64/B65*100</f>
         <v>0.92604970397680075</v>
       </c>
-      <c r="C73" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="E73" s="78"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
+      <c r="C73" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="80"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="43"/>
     </row>
     <row r="74" ht="14.4" customHeight="1">
-      <c r="A74" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="44">
+      <c r="A74" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="46">
         <f>SUM(B69:B73)</f>
         <v>100</v>
       </c>
-      <c r="C74" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E74" s="79"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="45"/>
+      <c r="C74" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="81"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="47"/>
     </row>
     <row r="75" ht="14.4" customHeight="1"/>
-    <row r="76" s="80" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A76" s="81" t="s">
-        <v>182</v>
+    <row r="76" s="82" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A76" s="83" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="77" ht="14.4" customHeight="1">
       <c r="A77" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" ht="14.4" customHeight="1">
+      <c r="A78" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="73" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" ht="14.4" customHeight="1">
-      <c r="A78" s="69" t="s">
+    <row r="79" ht="14.4" customHeight="1">
+      <c r="A79" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="B78" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="71" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" ht="14.4" customHeight="1">
-      <c r="A79" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="B79" s="76">
+      <c r="B79" s="78">
         <f>B6*B7</f>
         <v>150</v>
       </c>
-      <c r="C79" s="77" t="s">
-        <v>187</v>
+      <c r="C79" s="79" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="80" ht="14.4" customHeight="1">
-      <c r="A80" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" s="41">
+      <c r="A80" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="42">
         <f>B8*B9</f>
         <v>28.75</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>189</v>
+      <c r="C80" s="43" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="81" ht="14.4" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="41">
+      <c r="A81" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="42">
         <f>B10</f>
         <v>68</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" ht="14.4" customHeight="1">
+      <c r="A82" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="F81" s="82"/>
-    </row>
-    <row r="82" ht="14.4" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B82" s="41">
+      <c r="B82" s="42">
         <f>B81*34.6/100</f>
         <v>23.528000000000002</v>
       </c>
-      <c r="C82" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
+      <c r="C82" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" ht="14.4" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" s="41">
+      <c r="A83" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="42">
         <f>B14*B15/B5/1000+(B52*F84*1000)/B5/1000</f>
         <v>5.4247371375909665</v>
       </c>
-      <c r="C83" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
+      <c r="C83" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
     </row>
     <row r="84" ht="14.4" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B84" s="41">
+      <c r="A84" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="42">
         <f>B95*F84/B5</f>
         <v>41.587944168440977</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="F84" s="84">
+      <c r="C84" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="85">
         <f>(B5*B10)/B42</f>
         <v>0.3592776594905765</v>
       </c>
     </row>
     <row r="85" ht="14.4" customHeight="1">
-      <c r="A85" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B85" s="41">
+      <c r="A85" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="42">
         <f>B106*F84/B5</f>
         <v>130.89503982335779</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>201</v>
+      <c r="C85" s="43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="86" ht="14.4" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B86" s="41">
+      <c r="A86" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="42">
         <f>B114*F84/B5</f>
         <v>2.2414636069710596</v>
       </c>
-      <c r="C86" s="42" t="s">
-        <v>203</v>
+      <c r="C86" s="43" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="87" ht="14.4" customHeight="1">
-      <c r="A87" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B87" s="44">
+      <c r="A87" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="46">
         <f>SUM(B79:B86)</f>
         <v>450.42718473636086</v>
       </c>
-      <c r="C87" s="45" t="s">
-        <v>205</v>
+      <c r="C87" s="47" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="88" ht="14.4" customHeight="1"/>
     <row r="89" ht="14.4" customHeight="1">
       <c r="A89" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" ht="14.4" customHeight="1">
-      <c r="A90" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="70" t="s">
+      <c r="A90" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="71" t="s">
-        <v>185</v>
+      <c r="C90" s="73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="91" ht="14.4" customHeight="1">
-      <c r="A91" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B91" s="76">
+      <c r="A91" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="78">
         <f>E11*((100+34.6)/100)</f>
         <v>106.33399999999999</v>
       </c>
-      <c r="C91" s="77" t="s">
-        <v>208</v>
+      <c r="C91" s="79" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="14.4">
-      <c r="A92" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" s="41">
+      <c r="A92" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="42">
         <f>E13*((100+34.6)/100)</f>
         <v>632.61999999999989</v>
       </c>
-      <c r="C92" s="42" t="s">
-        <v>210</v>
+      <c r="C92" s="43" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="93" ht="14.4" customHeight="1">
-      <c r="A93" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B93" s="41">
+      <c r="A93" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="42">
         <f>E27</f>
         <v>13.199999999999999</v>
       </c>
-      <c r="C93" s="42" t="s">
-        <v>212</v>
+      <c r="C93" s="43" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="94" ht="14.4" customHeight="1">
-      <c r="A94" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B94" s="41">
+      <c r="A94" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="42">
         <f>E29</f>
         <v>23.399999999999999</v>
       </c>
-      <c r="C94" s="42" t="s">
-        <v>214</v>
+      <c r="C94" s="43" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="95" ht="14.4" customHeight="1">
-      <c r="A95" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B95" s="44">
+      <c r="A95" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="46">
         <f>SUM(B91:B94)</f>
         <v>775.55399999999986</v>
       </c>
-      <c r="C95" s="45" t="s">
-        <v>216</v>
+      <c r="C95" s="47" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="96" ht="14.4" customHeight="1"/>
     <row r="97" ht="14.4" customHeight="1">
       <c r="A97" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" ht="14.4" customHeight="1">
-      <c r="A98" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B98" s="70" t="s">
+      <c r="A98" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="71" t="s">
-        <v>185</v>
+      <c r="C98" s="73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="99" ht="14.4">
-      <c r="A99" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="B99" s="76">
+      <c r="A99" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" s="78">
         <f>E12*((100+34.6)/100)</f>
         <v>2153.5999999999999</v>
       </c>
-      <c r="C99" s="77" t="s">
-        <v>219</v>
+      <c r="C99" s="79" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="100" ht="14.4" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B100" s="41">
+      <c r="A100" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B100" s="42">
         <f>B51</f>
         <v>136</v>
       </c>
-      <c r="C100" s="42" t="s">
-        <v>221</v>
+      <c r="C100" s="43" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="101" ht="14.4" customHeight="1">
-      <c r="A101" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B101" s="41">
+      <c r="A101" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="42">
         <f>B53</f>
         <v>105</v>
       </c>
-      <c r="C101" s="42" t="s">
-        <v>223</v>
+      <c r="C101" s="43" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="102" ht="14.4" customHeight="1">
-      <c r="A102" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B102" s="41">
+      <c r="A102" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B102" s="42">
         <f t="shared" ref="B102:B104" si="3">E21</f>
         <v>12</v>
       </c>
-      <c r="C102" s="42" t="s">
-        <v>225</v>
+      <c r="C102" s="43" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="103" ht="14.4" customHeight="1">
-      <c r="A103" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" s="41">
+      <c r="A103" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="42">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="C103" s="42" t="s">
-        <v>227</v>
+      <c r="C103" s="43" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="104" ht="14.4" customHeight="1">
-      <c r="A104" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="41">
+      <c r="A104" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="42">
         <f t="shared" si="3"/>
         <v>5.4000000000000004</v>
       </c>
-      <c r="C104" s="42" t="s">
-        <v>229</v>
+      <c r="C104" s="43" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="105" ht="14.4" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="41">
+      <c r="A105" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="42">
         <f>E30</f>
         <v>8</v>
       </c>
-      <c r="C105" s="42" t="s">
-        <v>231</v>
+      <c r="C105" s="43" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="106" ht="14.4" customHeight="1">
-      <c r="A106" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B106" s="44">
+      <c r="A106" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="46">
         <f>SUM(B99:B105)</f>
         <v>2441</v>
       </c>
-      <c r="C106" s="45" t="s">
-        <v>233</v>
+      <c r="C106" s="47" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="107" ht="14.4" customHeight="1"/>
     <row r="108" ht="14.4" customHeight="1">
       <c r="A108" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" ht="14.4" customHeight="1">
-      <c r="A109" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B109" s="70" t="s">
+      <c r="A109" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="71" t="s">
-        <v>185</v>
+      <c r="C109" s="73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="110" ht="14.4" customHeight="1">
-      <c r="A110" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B110" s="76">
+      <c r="A110" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="78">
         <f t="shared" ref="B110:B112" si="4">E24</f>
         <v>7.9000000000000004</v>
       </c>
-      <c r="C110" s="77" t="s">
-        <v>236</v>
+      <c r="C110" s="79" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="111" ht="14.4" customHeight="1">
-      <c r="A111" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="41">
+      <c r="A111" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" s="42">
         <f t="shared" si="4"/>
         <v>19.699999999999999</v>
       </c>
-      <c r="C111" s="42" t="s">
-        <v>238</v>
+      <c r="C111" s="43" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="112" ht="14.4" customHeight="1">
-      <c r="A112" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B112" s="41">
+      <c r="A112" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" s="42">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="C112" s="42" t="s">
-        <v>240</v>
+      <c r="C112" s="43" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="113" ht="14.4" customHeight="1">
-      <c r="A113" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="41">
+      <c r="A113" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="42">
         <f>E28</f>
         <v>6.7000000000000002</v>
       </c>
-      <c r="C113" s="42" t="s">
-        <v>242</v>
+      <c r="C113" s="43" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="114" ht="14.4" customHeight="1">
-      <c r="A114" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" s="44">
+      <c r="A114" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="46">
         <f>SUM(B110:B113)</f>
         <v>41.800000000000004</v>
       </c>
-      <c r="C114" s="45" t="s">
-        <v>216</v>
+      <c r="C114" s="47" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="115" ht="14.4" customHeight="1"/>
-    <row r="116" s="80" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A116" s="81" t="s">
-        <v>244</v>
+    <row r="116" s="82" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A116" s="83" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="117" ht="14.4" customHeight="1">
       <c r="A117" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" ht="14.4" customHeight="1">
-      <c r="A118" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B118" s="70" t="s">
+      <c r="A118" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="71" t="s">
-        <v>185</v>
+      <c r="C118" s="73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="119" ht="14.4" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="40"/>
     </row>
     <row r="120" ht="14.4" customHeight="1">
-      <c r="A120" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B120" s="41">
+      <c r="A120" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="42">
         <f t="shared" ref="B120:B123" si="5">B79</f>
         <v>150</v>
       </c>
-      <c r="C120" s="42" t="s">
-        <v>247</v>
+      <c r="C120" s="43" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="121" ht="14.4" customHeight="1">
-      <c r="A121" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" s="41">
+      <c r="A121" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" s="42">
         <f t="shared" si="5"/>
         <v>28.75</v>
       </c>
-      <c r="C121" s="42" t="s">
-        <v>248</v>
+      <c r="C121" s="43" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="122" ht="14.4" customHeight="1">
-      <c r="A122" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B122" s="41">
+      <c r="A122" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B122" s="42">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="C122" s="42" t="s">
-        <v>249</v>
+      <c r="C122" s="43" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="123" ht="14.4" customHeight="1">
-      <c r="A123" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" s="41">
+      <c r="A123" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" s="42">
         <f t="shared" si="5"/>
         <v>23.528000000000002</v>
       </c>
-      <c r="C123" s="42" t="s">
-        <v>250</v>
+      <c r="C123" s="43" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="124" ht="14.4" customHeight="1">
-      <c r="A124" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="B124" s="44">
+      <c r="A124" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="46">
         <f>SUM(B120:B123)</f>
         <v>270.27800000000002</v>
       </c>
-      <c r="C124" s="45" t="s">
+      <c r="C124" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" ht="14.4" customHeight="1">
+      <c r="A125" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="87"/>
+      <c r="C125" s="87"/>
+    </row>
+    <row r="126" ht="14.4" customHeight="1">
+      <c r="A126" s="88" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="125" ht="14.4" customHeight="1">
-      <c r="A125" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="B125" s="86"/>
-      <c r="C125" s="86"/>
-    </row>
-    <row r="126" ht="14.4" customHeight="1">
-      <c r="A126" s="87" t="s">
-        <v>254</v>
-      </c>
-      <c r="B126" s="73">
+      <c r="B126" s="75">
         <f t="shared" ref="B126:B129" si="6">B83</f>
         <v>5.4247371375909665</v>
       </c>
-      <c r="C126" s="74" t="s">
-        <v>255</v>
+      <c r="C126" s="76" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="127" ht="14.4" customHeight="1">
-      <c r="A127" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B127" s="41">
+      <c r="A127" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" s="42">
         <f t="shared" si="6"/>
         <v>41.587944168440977</v>
       </c>
-      <c r="C127" s="42" t="s">
-        <v>257</v>
+      <c r="C127" s="43" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="128" ht="14.4" customHeight="1">
-      <c r="A128" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B128" s="41">
+      <c r="A128" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" s="42">
         <f t="shared" si="6"/>
         <v>130.89503982335779</v>
       </c>
-      <c r="C128" s="42" t="s">
-        <v>259</v>
+      <c r="C128" s="43" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="129" ht="14.4" customHeight="1">
-      <c r="A129" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B129" s="41">
+      <c r="A129" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="42">
         <f t="shared" si="6"/>
         <v>2.2414636069710596</v>
       </c>
-      <c r="C129" s="42" t="s">
-        <v>261</v>
+      <c r="C129" s="43" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="130" ht="14.4" customHeight="1">
-      <c r="A130" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="B130" s="44">
+      <c r="A130" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" s="46">
         <f>SUM(B126:B129)</f>
         <v>180.14918473636078</v>
       </c>
-      <c r="C130" s="45" t="s">
-        <v>263</v>
+      <c r="C130" s="47" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="131" ht="14.4" customHeight="1"/>
     <row r="132" ht="14.4" customHeight="1">
       <c r="A132" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" ht="14.4" customHeight="1">
-      <c r="A133" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B133" s="70" t="s">
+      <c r="A133" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B133" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="71" t="s">
-        <v>185</v>
+      <c r="C133" s="73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="134" ht="14.4" customHeight="1">
-      <c r="A134" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" s="76">
+      <c r="A134" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="78">
         <f>B87</f>
         <v>450.42718473636086</v>
       </c>
-      <c r="C134" s="77" t="s">
+      <c r="C134" s="79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" ht="14.4" customHeight="1">
+      <c r="A135" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="42">
+        <v>25</v>
+      </c>
+      <c r="C135" s="43" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="135" ht="14.4" customHeight="1">
-      <c r="A135" s="12" t="s">
+    <row r="136" ht="14.4" customHeight="1">
+      <c r="A136" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B135" s="41">
-        <v>25</v>
-      </c>
-      <c r="C135" s="42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136" ht="14.4" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" s="41">
+      <c r="B136" s="42">
         <f>B134*25/100</f>
         <v>112.60679618409021</v>
       </c>
-      <c r="C136" s="42" t="s">
-        <v>270</v>
+      <c r="C136" s="43" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="137" ht="14.4" customHeight="1">
-      <c r="A137" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="41">
+      <c r="A137" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="42">
         <f>B134+B136</f>
         <v>563.03398092045109</v>
       </c>
-      <c r="C137" s="42" t="s">
-        <v>74</v>
+      <c r="C137" s="43" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="138" ht="14.4" customHeight="1">
-      <c r="A138" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="41">
+      <c r="A138" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="42">
         <f>B5*1000</f>
         <v>6700</v>
       </c>
-      <c r="C138" s="42" t="s">
-        <v>273</v>
+      <c r="C138" s="43" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="139" ht="14.4" customHeight="1">
-      <c r="A139" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B139" s="41">
+      <c r="A139" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="42">
         <f>B130*B138</f>
         <v>1206999.5377336172</v>
       </c>
-      <c r="C139" s="42" t="s">
-        <v>275</v>
+      <c r="C139" s="43" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="140" ht="14.4" customHeight="1">
-      <c r="A140" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" s="41">
+      <c r="A140" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="42">
         <f>B124</f>
         <v>270.27800000000002</v>
       </c>
-      <c r="C140" s="42" t="s">
-        <v>277</v>
+      <c r="C140" s="43" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="141" ht="14.4" customHeight="1">
-      <c r="A141" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="88">
+      <c r="A141" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="89">
         <f>B139/(B137-B140)</f>
         <v>4122.8860088142428</v>
       </c>
-      <c r="C141" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="E141" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="F141" s="90"/>
-      <c r="G141" s="90"/>
-      <c r="H141" s="91"/>
+      <c r="C141" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E141" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" s="91"/>
+      <c r="G141" s="91"/>
+      <c r="H141" s="92"/>
     </row>
     <row r="142" ht="14.4" customHeight="1">
-      <c r="E142" s="92"/>
-      <c r="F142" s="93"/>
-      <c r="G142" s="93"/>
-      <c r="H142" s="94"/>
+      <c r="E142" s="93"/>
+      <c r="F142" s="94"/>
+      <c r="G142" s="94"/>
+      <c r="H142" s="95"/>
     </row>
     <row r="143" ht="14.4" customHeight="1">
       <c r="A143" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" ht="14.4" customHeight="1">
@@ -6187,7 +6266,7 @@
     <row r="155" ht="14.4" customHeight="1"/>
     <row r="156" ht="14.4" customHeight="1">
       <c r="B156" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C156" s="30"/>
     </row>
@@ -6210,7 +6289,7 @@
     </row>
     <row r="159" ht="14.4" customHeight="1">
       <c r="B159" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C159" s="30"/>
     </row>
